--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -91,61 +91,61 @@
     <t>risk</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>heroes</t>
   </si>
   <si>
     <t>care</t>
@@ -757,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>0.9145299145299145</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0.8976377952755905</v>
@@ -939,7 +939,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>0.8899082568807339</v>
@@ -989,7 +989,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <v>0.8793103448275862</v>
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7">
         <v>0.8642857142857143</v>
@@ -1089,7 +1089,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -1139,7 +1139,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9">
         <v>0.8181818181818182</v>
@@ -1189,7 +1189,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>0.8141025641025641</v>
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11">
         <v>0.7894736842105263</v>
@@ -1289,7 +1289,7 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>0.7792553191489362</v>
@@ -1339,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13">
         <v>0.7640449438202247</v>
@@ -1389,28 +1389,28 @@
         <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14">
-        <v>0.7631578947368421</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L14">
         <v>174</v>
       </c>
       <c r="M14">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1439,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
         <v>0.7173144876325088</v>
@@ -1489,7 +1489,7 @@
         <v>35</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>0.7111111111111111</v>
@@ -1539,7 +1539,7 @@
         <v>264</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>0.696969696969697</v>
@@ -1589,28 +1589,28 @@
         <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>0.696319018404908</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L18">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>241</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1642,13 +1642,13 @@
         <v>43</v>
       </c>
       <c r="K19">
-        <v>0.6808510638297872</v>
+        <v>0.6676470588235294</v>
       </c>
       <c r="L19">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>227</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,25 +1668,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1238938053097345</v>
+        <v>0.01306655777868518</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>241</v>
+        <v>690</v>
       </c>
       <c r="E20">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F20">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>99</v>
+        <v>2417</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>44</v>
@@ -1714,30 +1714,6 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.01306655777868518</v>
-      </c>
-      <c r="C21">
-        <v>32</v>
-      </c>
-      <c r="D21">
-        <v>690</v>
-      </c>
-      <c r="E21">
-        <v>0.95</v>
-      </c>
-      <c r="F21">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>2417</v>
-      </c>
       <c r="J21" s="1" t="s">
         <v>45</v>
       </c>
@@ -3143,7 +3119,7 @@
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K75">
         <v>0.2139837398373984</v>
